--- a/metricas.xlsx
+++ b/metricas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Lucas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6197BD90-3827-4BDB-ABBB-652184983D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C4958C-A65F-469B-A3B0-F1777EFACEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9118BE6C-1281-4F21-BE84-F0C29BEEA49E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9118BE6C-1281-4F21-BE84-F0C29BEEA49E}"/>
   </bookViews>
   <sheets>
     <sheet name="PC Lucas - 4 threads" sheetId="1" r:id="rId1"/>
+    <sheet name="Castor - 12 Threads" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,8 +35,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={4A454F55-19D2-4084-A50A-067F0B75A6FD}</author>
+  </authors>
+  <commentList>
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{4A454F55-19D2-4084-A50A-067F0B75A6FD}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Fração de tempo que os processadores estão sendo utilizados para processamento</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={4C432B10-78A7-4A0E-AA85-EB33C50A6FEE}</author>
+  </authors>
+  <commentList>
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{4C432B10-78A7-4A0E-AA85-EB33C50A6FEE}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Fração de tempo que os processadores estão sendo utilizados para processamento</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>Configurações</t>
   </si>
@@ -57,12 +94,27 @@
   <si>
     <t>Média de 10 runs(ms)</t>
   </si>
+  <si>
+    <t>Eficiência</t>
+  </si>
+  <si>
+    <t>Num de procs</t>
+  </si>
+  <si>
+    <t>Speedup ideal (linear)</t>
+  </si>
+  <si>
+    <t>Speedup real</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i3-3217U CPU @ 1.80GHz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +128,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,23 +159,44 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -128,6 +207,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Lucas Pinheiro" id="{099CFADB-18E4-417A-B26A-7BEF366B131E}" userId="4f22ed5544d7180c" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,12 +510,28 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K3" dT="2022-08-04T00:58:07.87" personId="{099CFADB-18E4-417A-B26A-7BEF366B131E}" id="{4A454F55-19D2-4084-A50A-067F0B75A6FD}">
+    <text>Fração de tempo que os processadores estão sendo utilizados para processamento</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K3" dT="2022-08-04T00:58:07.87" personId="{099CFADB-18E4-417A-B26A-7BEF366B131E}" id="{4C432B10-78A7-4A0E-AA85-EB33C50A6FEE}">
+    <text>Fração de tempo que os processadores estão sendo utilizados para processamento</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AEFE2E-504B-4974-BA6E-CD261F7DDD84}">
-  <dimension ref="A1:D33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AEFE2E-504B-4974-BA6E-CD261F7DDD84}">
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,23 +540,38 @@
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -468,9 +584,18 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>1000000</v>
       </c>
       <c r="B4">
@@ -482,9 +607,21 @@
       <c r="D4">
         <v>395.14699999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="I4">
+        <f>D4/G$1</f>
+        <v>98.786749999999998</v>
+      </c>
+      <c r="J4">
+        <f>D4/C4</f>
+        <v>1.6104719168898074</v>
+      </c>
+      <c r="K4">
+        <f>J4/G$1</f>
+        <v>0.40261797922245185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
       <c r="B5">
         <v>10000</v>
       </c>
@@ -494,9 +631,21 @@
       <c r="D5">
         <v>402.03</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="I5">
+        <f>D5/G$1</f>
+        <v>100.50749999999999</v>
+      </c>
+      <c r="J5">
+        <f>D5/C5</f>
+        <v>1.9440804266986464</v>
+      </c>
+      <c r="K5">
+        <f>J5/G$1</f>
+        <v>0.48602010667466161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
       <c r="B6">
         <v>1000</v>
       </c>
@@ -506,9 +655,21 @@
       <c r="D6">
         <v>400.798</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="I6">
+        <f>D6/G$1</f>
+        <v>100.1995</v>
+      </c>
+      <c r="J6">
+        <f>D6/C6</f>
+        <v>1.8962184257712889</v>
+      </c>
+      <c r="K6">
+        <f>J6/G$1</f>
+        <v>0.47405460644282221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
       <c r="B7">
         <v>100</v>
       </c>
@@ -518,33 +679,69 @@
       <c r="D7">
         <v>404.04300000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="I7">
+        <f>D7/G$1</f>
+        <v>101.01075</v>
+      </c>
+      <c r="J7">
+        <f>D7/C7</f>
+        <v>1.7560597170610861</v>
+      </c>
+      <c r="K7">
+        <f>J7/G$1</f>
+        <v>0.43901492926527153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>476.048</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>378.72300000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="I8">
+        <f>D8/G$1</f>
+        <v>94.680750000000003</v>
+      </c>
+      <c r="J8">
+        <f>D8/C8</f>
+        <v>0.79555633045407192</v>
+      </c>
+      <c r="K8">
+        <f>J8/G$1</f>
+        <v>0.19888908261351798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>2235.4340000000002</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>401.322</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="I9">
+        <f>D9/G$1</f>
+        <v>100.3305</v>
+      </c>
+      <c r="J9">
+        <f>D9/C9</f>
+        <v>0.17952755482827942</v>
+      </c>
+      <c r="K9">
+        <f>J9/G$1</f>
+        <v>4.4881888707069856E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>100000</v>
       </c>
       <c r="B10">
@@ -556,9 +753,21 @@
       <c r="D10">
         <v>48.97</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="I10">
+        <f>D10/G$1</f>
+        <v>12.2425</v>
+      </c>
+      <c r="J10">
+        <f>D10/C10</f>
+        <v>2.3783389995143271</v>
+      </c>
+      <c r="K10">
+        <f>J10/G$1</f>
+        <v>0.59458474987858179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
       <c r="B11">
         <v>1000</v>
       </c>
@@ -568,9 +777,21 @@
       <c r="D11">
         <v>39.630000000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="I11">
+        <f>D11/G$1</f>
+        <v>9.9075000000000006</v>
+      </c>
+      <c r="J11">
+        <f>D11/C11</f>
+        <v>2.4032747119466347</v>
+      </c>
+      <c r="K11">
+        <f>J11/G$1</f>
+        <v>0.60081867798665867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
       <c r="B12">
         <v>100</v>
       </c>
@@ -580,33 +801,69 @@
       <c r="D12">
         <v>41.35</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="I12">
+        <f>D12/G$1</f>
+        <v>10.3375</v>
+      </c>
+      <c r="J12">
+        <f>D12/C12</f>
+        <v>1.5185457216305545</v>
+      </c>
+      <c r="K12">
+        <f>J12/G$1</f>
+        <v>0.37963643040763861</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>55.52</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>32.76</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="I13">
+        <f>D13/G$1</f>
+        <v>8.19</v>
+      </c>
+      <c r="J13">
+        <f>D13/C13</f>
+        <v>0.59005763688760804</v>
+      </c>
+      <c r="K13">
+        <f>J13/G$1</f>
+        <v>0.14751440922190201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>220.58</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>42.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="I14">
+        <f>D14/G$1</f>
+        <v>10.625</v>
+      </c>
+      <c r="J14">
+        <f>D14/C14</f>
+        <v>0.1926738598241001</v>
+      </c>
+      <c r="K14">
+        <f>J14/G$1</f>
+        <v>4.8168464956025024E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>10000</v>
       </c>
       <c r="B15">
@@ -618,45 +875,93 @@
       <c r="D15">
         <v>2.9262999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="I15">
+        <f>D15/G$1</f>
+        <v>0.73157499999999998</v>
+      </c>
+      <c r="J15">
+        <f>D15/C15</f>
+        <v>1.7418452380952381</v>
+      </c>
+      <c r="K15">
+        <f>J15/G$1</f>
+        <v>0.43546130952380951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
       <c r="B16">
         <v>100</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>3.14</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>2.89</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="I16">
+        <f>D16/G$1</f>
+        <v>0.72250000000000003</v>
+      </c>
+      <c r="J16">
+        <f>D16/C16</f>
+        <v>0.92038216560509556</v>
+      </c>
+      <c r="K16">
+        <f>J16/G$1</f>
+        <v>0.23009554140127389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
       <c r="B17">
         <v>10</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>4.99</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>2.84</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="I17">
+        <f>D17/G$1</f>
+        <v>0.71</v>
+      </c>
+      <c r="J17">
+        <f>D17/C17</f>
+        <v>0.56913827655310611</v>
+      </c>
+      <c r="K17">
+        <f>J17/G$1</f>
+        <v>0.14228456913827653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>32.630000000000003</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>2.98</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="I18">
+        <f>D18/G$1</f>
+        <v>0.745</v>
+      </c>
+      <c r="J18">
+        <f>D18/C18</f>
+        <v>9.1326999693533556E-2</v>
+      </c>
+      <c r="K18">
+        <f>J18/G$1</f>
+        <v>2.2831749923383389E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>1000</v>
       </c>
       <c r="B19">
@@ -668,97 +973,666 @@
       <c r="D19">
         <v>0.316</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="I19">
+        <f>D19/G$1</f>
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="J19">
+        <f>D19/C19</f>
+        <v>0.19874213836477986</v>
+      </c>
+      <c r="K19">
+        <f>J19/G$1</f>
+        <v>4.9685534591194964E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
       <c r="B20">
         <v>10</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>0.435</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>0.33100000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="I20">
+        <f>D20/G$1</f>
+        <v>8.2750000000000004E-2</v>
+      </c>
+      <c r="J20">
+        <f>D20/C20</f>
+        <v>0.76091954022988506</v>
+      </c>
+      <c r="K20">
+        <f>J20/G$1</f>
+        <v>0.19022988505747127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>3.2719999999999998</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>0.33900000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="I21">
+        <f>D21/G$1</f>
+        <v>8.4750000000000006E-2</v>
+      </c>
+      <c r="J21">
+        <f>D21/C21</f>
+        <v>0.10360635696821517</v>
+      </c>
+      <c r="K21">
+        <f>J21/G$1</f>
+        <v>2.5901589242053793E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>100</v>
       </c>
       <c r="B22">
         <v>10</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>0.13700000000000001</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="I22">
+        <f>D22/G$1</f>
+        <v>5.7499999999999999E-3</v>
+      </c>
+      <c r="J22">
+        <f>D22/C22</f>
+        <v>0.16788321167883211</v>
+      </c>
+      <c r="K22">
+        <f>J22/G$1</f>
+        <v>4.1970802919708027E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>0.248</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="I23">
+        <f>D23/G$1</f>
+        <v>5.7499999999999999E-3</v>
+      </c>
+      <c r="J23">
+        <f>D23/C23</f>
+        <v>9.2741935483870969E-2</v>
+      </c>
+      <c r="K23">
+        <f>J23/G$1</f>
+        <v>2.3185483870967742E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>10</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>0.96750000000000003</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <v>2.3E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+      <c r="I24">
+        <f>D24/G$1</f>
+        <v>5.7499999999999999E-4</v>
+      </c>
+      <c r="J24">
+        <f>D24/C24</f>
+        <v>2.3772609819121444E-3</v>
+      </c>
+      <c r="K24">
+        <f>J24/G$1</f>
+        <v>5.9431524547803611E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A21"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J4:J24">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00D8D29-B672-4019-9430-2E3A7CBE7BD2}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="B4">
+        <v>100000</v>
+      </c>
+      <c r="I4">
+        <f>D4/G$1</f>
+        <v>0</v>
+      </c>
+      <c r="J4" t="e">
+        <f>D4/C4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" t="e">
+        <f>J4/G$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="I5">
+        <f>D5/G$1</f>
+        <v>0</v>
+      </c>
+      <c r="J5" t="e">
+        <f>D5/C5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K5" t="e">
+        <f>J5/G$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="I6">
+        <f>D6/G$1</f>
+        <v>0</v>
+      </c>
+      <c r="J6" t="e">
+        <f>D6/C6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" t="e">
+        <f>J6/G$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <f>D7/G$1</f>
+        <v>0</v>
+      </c>
+      <c r="J7" t="e">
+        <f>D7/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" t="e">
+        <f>J7/G$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="I8">
+        <f>D8/G$1</f>
+        <v>0</v>
+      </c>
+      <c r="J8" t="e">
+        <f>D8/C8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" t="e">
+        <f>J8/G$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="I9">
+        <f>D9/G$1</f>
+        <v>0</v>
+      </c>
+      <c r="J9" t="e">
+        <f>D9/C9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" t="e">
+        <f>J9/G$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>100000</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="I10">
+        <f>D10/G$1</f>
+        <v>0</v>
+      </c>
+      <c r="J10" t="e">
+        <f>D10/C10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" t="e">
+        <f>J10/G$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="I11">
+        <f>D11/G$1</f>
+        <v>0</v>
+      </c>
+      <c r="J11" t="e">
+        <f>D11/C11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" t="e">
+        <f>J11/G$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <f>D12/G$1</f>
+        <v>0</v>
+      </c>
+      <c r="J12" t="e">
+        <f>D12/C12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" t="e">
+        <f>J12/G$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="I13">
+        <f>D13/G$1</f>
+        <v>0</v>
+      </c>
+      <c r="J13" t="e">
+        <f>D13/C13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" t="e">
+        <f>J13/G$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="I14">
+        <f>D14/G$1</f>
+        <v>0</v>
+      </c>
+      <c r="J14" t="e">
+        <f>D14/C14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" t="e">
+        <f>J14/G$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>10000</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+      <c r="I15">
+        <f>D15/G$1</f>
+        <v>0</v>
+      </c>
+      <c r="J15" t="e">
+        <f>D15/C15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" t="e">
+        <f>J15/G$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="I16">
+        <f>D16/G$1</f>
+        <v>0</v>
+      </c>
+      <c r="J16" t="e">
+        <f>D16/C16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" t="e">
+        <f>J16/G$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="I17">
+        <f>D17/G$1</f>
+        <v>0</v>
+      </c>
+      <c r="J17" t="e">
+        <f>D17/C17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" t="e">
+        <f>J17/G$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="I18">
+        <f>D18/G$1</f>
+        <v>0</v>
+      </c>
+      <c r="J18" t="e">
+        <f>D18/C18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" t="e">
+        <f>J18/G$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <f>D19/G$1</f>
+        <v>0</v>
+      </c>
+      <c r="J19" t="e">
+        <f>D19/C19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" t="e">
+        <f>J19/G$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="I20">
+        <f>D20/G$1</f>
+        <v>0</v>
+      </c>
+      <c r="J20" t="e">
+        <f>D20/C20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" t="e">
+        <f>J20/G$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="I21">
+        <f>D21/G$1</f>
+        <v>0</v>
+      </c>
+      <c r="J21" t="e">
+        <f>D21/C21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" t="e">
+        <f>J21/G$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="I22">
+        <f>D22/G$1</f>
+        <v>0</v>
+      </c>
+      <c r="J22" t="e">
+        <f>D22/C22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" t="e">
+        <f>J22/G$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="I23">
+        <f>D23/G$1</f>
+        <v>0</v>
+      </c>
+      <c r="J23" t="e">
+        <f>D23/C23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" t="e">
+        <f>J23/G$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="I24">
+        <f>D24/G$1</f>
+        <v>0</v>
+      </c>
+      <c r="J24" t="e">
+        <f>D24/C24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" t="e">
+        <f>J24/G$1</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -769,7 +1643,12 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A23"/>
   </mergeCells>
+  <conditionalFormatting sqref="J4:J24">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/metricas.xlsx
+++ b/metricas.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Lucas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cefetrjbr-my.sharepoint.com/personal/15523134767_cefet-rj_br/Documents/Documentos/MESTRADO - PPCIC/DISCIPLINAS/3_2022_2/CPD/Trab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C4958C-A65F-469B-A3B0-F1777EFACEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="275" documentId="13_ncr:1_{25C4958C-A65F-469B-A3B0-F1777EFACEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB975536-4121-4939-AA94-6A69D77BD420}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9118BE6C-1281-4F21-BE84-F0C29BEEA49E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{9118BE6C-1281-4F21-BE84-F0C29BEEA49E}"/>
   </bookViews>
   <sheets>
     <sheet name="PC Lucas - 4 threads" sheetId="1" r:id="rId1"/>
-    <sheet name="Castor - 12 Threads" sheetId="2" r:id="rId2"/>
+    <sheet name="Castor - 4 Threads" sheetId="4" r:id="rId2"/>
+    <sheet name="Castor - 8 Threads" sheetId="2" r:id="rId3"/>
+    <sheet name="Castor - 12 Threads" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,10 +58,46 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={67131FEA-EC94-42EA-961F-3B7FB626AE00}</author>
+  </authors>
+  <commentList>
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{67131FEA-EC94-42EA-961F-3B7FB626AE00}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Fração de tempo que os processadores estão sendo utilizados para processamento</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={4C432B10-78A7-4A0E-AA85-EB33C50A6FEE}</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{4C432B10-78A7-4A0E-AA85-EB33C50A6FEE}">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{4C432B10-78A7-4A0E-AA85-EB33C50A6FEE}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Fração de tempo que os processadores estão sendo utilizados para processamento</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={AADF7EF7-1A90-4EC8-8ABE-4786F72322FA}</author>
+  </authors>
+  <commentList>
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{AADF7EF7-1A90-4EC8-8ABE-4786F72322FA}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
   <si>
     <t>Configurações</t>
   </si>
@@ -109,12 +147,30 @@
   <si>
     <t>Intel(R) Core(TM) i3-3217U CPU @ 1.80GHz</t>
   </si>
+  <si>
+    <t>(%)</t>
+  </si>
+  <si>
+    <t>Speedup Real</t>
+  </si>
+  <si>
+    <t>12 threads</t>
+  </si>
+  <si>
+    <t>8 threads</t>
+  </si>
+  <si>
+    <t>4 threads</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,18 +186,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,10 +222,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -166,16 +236,43 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -207,6 +304,5557 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>n</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> = 1000000 , 4 threads</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Castor - 4 Threads'!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speedup Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Castor - 4 Threads'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Castor - 4 Threads'!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.7066284857686469</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7151205259313369</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7061979116773638</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5830411396471646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3575772247506537</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19761120690500436</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-76E1-4CD6-8834-2352305D509D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Castor - 4 Threads'!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Eficiência</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Castor - 4 Threads'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Castor - 4 Threads'!$L$4:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.67665712144216172</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67878013148283423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67654947791934095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64576028491179116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33939430618766342</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.940280172625109E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-76E1-4CD6-8834-2352305D509D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1187676719"/>
+        <c:axId val="1184097103"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Castor - 4 Threads'!$C$4:$C$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000%</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.0000000000000001E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Castor - 4 Threads'!$K$4:$K$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>2.7066284857686469</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.7151205259313369</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.7061979116773638</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.5830411396471646</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.3575772247506537</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.19761120690500436</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.5405405405405408</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.2878787878787881</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.4592449177153921</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.0127690330870542</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.17821293633338972</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.2237354085603114</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.171102661596958</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.2926008968609866</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.16040135669869984</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.3041958041958044</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.0756756756756758</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.37735849056603776</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.27272727272727271</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>8.8757396449704137E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3.0588235294117642E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-76E1-4CD6-8834-2352305D509D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Castor - 4 Threads'!$C$4:$C$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000%</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.0000000000000001E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Castor - 4 Threads'!$L$4:$L$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>0.67665712144216172</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.67878013148283423</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.67654947791934095</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.64576028491179116</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.33939430618766342</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.940280172625109E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6351351351351352</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.57196969696969702</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.61481122942884803</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.25319225827176356</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4.455323408334743E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.55593385214007784</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.54277566539923949</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.32315022421524664</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>4.0100339174674961E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.3260489510489511</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.26891891891891895</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>9.4339622641509441E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>6.8181818181818177E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2.2189349112426034E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>7.6470588235294104E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-76E1-4CD6-8834-2352305D509D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1187676719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184097103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1184097103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1187676719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>n</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> = 1000000 , 8 threads</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Castor - 8 Threads'!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speedup real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Castor - 8 Threads'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Castor - 8 Threads'!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.7112080719934553</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.656022845275182</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.676554036626257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5728071512011783</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.020374531835206</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13461349572733525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15BC-4FFE-8F16-5D5014D633D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Castor - 8 Threads'!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Eficiência</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Castor - 8 Threads'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Castor - 8 Threads'!$L$4:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.46390100899918191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45700285565939774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45956925457828213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44660089390014729</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12754681647940075</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6826686965916906E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-15BC-4FFE-8F16-5D5014D633D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1187676719"/>
+        <c:axId val="1184097103"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Castor - 8 Threads'!$C$4:$C$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000%</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.0000000000000001E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Castor - 4 Threads'!$K$4:$K$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>2.7066284857686469</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.7151205259313369</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.7061979116773638</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.5830411396471646</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.3575772247506537</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.19761120690500436</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.5405405405405408</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.2878787878787881</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.4592449177153921</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.0127690330870542</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.17821293633338972</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.2237354085603114</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.171102661596958</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.2926008968609866</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.16040135669869984</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.3041958041958044</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.0756756756756758</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.37735849056603776</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.27272727272727271</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>8.8757396449704137E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3.0588235294117642E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-15BC-4FFE-8F16-5D5014D633D7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Castor - 8 Threads'!$C$4:$C$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000%</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.0000000000000001E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Castor - 4 Threads'!$L$4:$L$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>0.67665712144216172</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.67878013148283423</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.67654947791934095</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.64576028491179116</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.33939430618766342</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.940280172625109E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6351351351351352</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.57196969696969702</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.61481122942884803</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.25319225827176356</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4.455323408334743E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.55593385214007784</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.54277566539923949</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.32315022421524664</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>4.0100339174674961E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.3260489510489511</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.26891891891891895</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>9.4339622641509441E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>6.8181818181818177E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2.2189349112426034E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>7.6470588235294104E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-15BC-4FFE-8F16-5D5014D633D7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1187676719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184097103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1184097103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1187676719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>n</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> = 1000000 , 12 threads</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Castor - 12 Threads'!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speedup real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Castor - 12 Threads'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Castor - 12 Threads'!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.9338426059383109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9577997671711294</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9580459770114946</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7909215955983497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93475942956150881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12739436751322158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-11EC-4DB6-85CD-43669F080EE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Castor - 12 Threads'!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Eficiência</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Castor - 12 Threads'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Castor - 12 Threads'!$L$4:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.32782021716152593</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3298166472642608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32983716475095787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31591013296652914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.789661913012573E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0616197292768465E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-11EC-4DB6-85CD-43669F080EE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1187676719"/>
+        <c:axId val="1184097103"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Castor - 12 Threads'!$C$4:$C$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000%</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.0000000000000001E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Castor - 4 Threads'!$K$4:$K$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>2.7066284857686469</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.7151205259313369</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.7061979116773638</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.5830411396471646</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.3575772247506537</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.19761120690500436</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.5405405405405408</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.2878787878787881</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.4592449177153921</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.0127690330870542</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.17821293633338972</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.2237354085603114</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.171102661596958</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.2926008968609866</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.16040135669869984</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.3041958041958044</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.0756756756756758</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.37735849056603776</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.27272727272727271</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>8.8757396449704137E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3.0588235294117642E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-11EC-4DB6-85CD-43669F080EE3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Castor - 12 Threads'!$C$4:$C$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000%</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.0000000000000001E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Castor - 4 Threads'!$L$4:$L$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>0.67665712144216172</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.67878013148283423</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.67654947791934095</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.64576028491179116</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.33939430618766342</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.940280172625109E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6351351351351352</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.57196969696969702</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.61481122942884803</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.25319225827176356</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4.455323408334743E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.55593385214007784</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.54277566539923949</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.32315022421524664</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>4.0100339174674961E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.3260489510489511</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.26891891891891895</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>9.4339622641509441E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>6.8181818181818177E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2.2189349112426034E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>7.6470588235294104E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-11EC-4DB6-85CD-43669F080EE3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1187676719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184097103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1184097103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1187676719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Eficiência (n = 1000000)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Castor - 4 Threads'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Castor - 12 Threads'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Castor - 4 Threads'!$L$4:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.67665712144216172</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67878013148283423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67654947791934095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64576028491179116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33939430618766342</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.940280172625109E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7AAF-4CF6-B4A3-4B67DAB83352}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Castor - 8 Threads'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8 threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Castor - 12 Threads'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Castor - 8 Threads'!$L$4:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.46390100899918191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45700285565939774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45956925457828213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44660089390014729</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12754681647940075</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6826686965916906E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7AAF-4CF6-B4A3-4B67DAB83352}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Castor - 12 Threads'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12 threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Castor - 12 Threads'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Castor - 12 Threads'!$L$4:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.32782021716152593</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3298166472642608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32983716475095787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31591013296652914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.789661913012573E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0616197292768465E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7AAF-4CF6-B4A3-4B67DAB83352}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1187676719"/>
+        <c:axId val="1184097103"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Castor - 12 Threads'!$C$4:$C$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000%</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.0000000000000001E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Castor - 4 Threads'!$K$4:$K$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>2.7066284857686469</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.7151205259313369</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.7061979116773638</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.5830411396471646</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.3575772247506537</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.19761120690500436</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.5405405405405408</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.2878787878787881</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.4592449177153921</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.0127690330870542</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.17821293633338972</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.2237354085603114</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.171102661596958</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.2926008968609866</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.16040135669869984</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.3041958041958044</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.0756756756756758</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.37735849056603776</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.27272727272727271</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>8.8757396449704137E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3.0588235294117642E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-7AAF-4CF6-B4A3-4B67DAB83352}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Castor - 12 Threads'!$C$4:$C$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000%</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.0000000000000001E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Castor - 4 Threads'!$L$4:$L$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>0.67665712144216172</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.67878013148283423</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.67654947791934095</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.64576028491179116</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.33939430618766342</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.940280172625109E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6351351351351352</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.57196969696969702</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.61481122942884803</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.25319225827176356</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4.455323408334743E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.55593385214007784</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.54277566539923949</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.32315022421524664</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>4.0100339174674961E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.3260489510489511</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.26891891891891895</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>9.4339622641509441E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>6.8181818181818177E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2.2189349112426034E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>7.6470588235294104E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-7AAF-4CF6-B4A3-4B67DAB83352}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1187676719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184097103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1184097103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1187676719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AAD825B-1D7A-3394-5703-69CCA9D27A83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44513B77-38EB-4826-9A0B-259D1E9D6709}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512BFC9A-B968-45B7-89AE-389AD2D9081C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28663D2D-94B6-42F7-B03E-BBD99895B3C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,7 +6168,23 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K3" dT="2022-08-04T00:58:07.87" personId="{099CFADB-18E4-417A-B26A-7BEF366B131E}" id="{4C432B10-78A7-4A0E-AA85-EB33C50A6FEE}">
+  <threadedComment ref="L3" dT="2022-08-04T00:58:07.87" personId="{099CFADB-18E4-417A-B26A-7BEF366B131E}" id="{67131FEA-EC94-42EA-961F-3B7FB626AE00}">
+    <text>Fração de tempo que os processadores estão sendo utilizados para processamento</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="L3" dT="2022-08-04T00:58:07.87" personId="{099CFADB-18E4-417A-B26A-7BEF366B131E}" id="{4C432B10-78A7-4A0E-AA85-EB33C50A6FEE}">
+    <text>Fração de tempo que os processadores estão sendo utilizados para processamento</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="L3" dT="2022-08-04T00:58:07.87" personId="{099CFADB-18E4-417A-B26A-7BEF366B131E}" id="{AADF7EF7-1A90-4EC8-8ABE-4786F72322FA}">
     <text>Fração de tempo que os processadores estão sendo utilizados para processamento</text>
   </threadedComment>
 </ThreadedComments>
@@ -530,8 +6194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AEFE2E-504B-4974-BA6E-CD261F7DDD84}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,10 +6230,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -595,7 +6259,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="8">
         <v>1000000</v>
       </c>
       <c r="B4">
@@ -608,20 +6272,20 @@
         <v>395.14699999999999</v>
       </c>
       <c r="I4">
-        <f>D4/G$1</f>
+        <f t="shared" ref="I4:I24" si="0">D4/G$1</f>
         <v>98.786749999999998</v>
       </c>
       <c r="J4">
-        <f>D4/C4</f>
+        <f t="shared" ref="J4:J24" si="1">D4/C4</f>
         <v>1.6104719168898074</v>
       </c>
       <c r="K4">
-        <f>J4/G$1</f>
+        <f t="shared" ref="K4:K24" si="2">J4/G$1</f>
         <v>0.40261797922245185</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="8"/>
       <c r="B5">
         <v>10000</v>
       </c>
@@ -632,20 +6296,20 @@
         <v>402.03</v>
       </c>
       <c r="I5">
-        <f>D5/G$1</f>
+        <f t="shared" si="0"/>
         <v>100.50749999999999</v>
       </c>
       <c r="J5">
-        <f>D5/C5</f>
+        <f t="shared" si="1"/>
         <v>1.9440804266986464</v>
       </c>
       <c r="K5">
-        <f>J5/G$1</f>
+        <f t="shared" si="2"/>
         <v>0.48602010667466161</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="8"/>
       <c r="B6">
         <v>1000</v>
       </c>
@@ -656,20 +6320,20 @@
         <v>400.798</v>
       </c>
       <c r="I6">
-        <f>D6/G$1</f>
+        <f t="shared" si="0"/>
         <v>100.1995</v>
       </c>
       <c r="J6">
-        <f>D6/C6</f>
+        <f t="shared" si="1"/>
         <v>1.8962184257712889</v>
       </c>
       <c r="K6">
-        <f>J6/G$1</f>
+        <f t="shared" si="2"/>
         <v>0.47405460644282221</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="8"/>
       <c r="B7">
         <v>100</v>
       </c>
@@ -680,20 +6344,20 @@
         <v>404.04300000000001</v>
       </c>
       <c r="I7">
-        <f>D7/G$1</f>
+        <f t="shared" si="0"/>
         <v>101.01075</v>
       </c>
       <c r="J7">
-        <f>D7/C7</f>
+        <f t="shared" si="1"/>
         <v>1.7560597170610861</v>
       </c>
       <c r="K7">
-        <f>J7/G$1</f>
+        <f t="shared" si="2"/>
         <v>0.43901492926527153</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="8"/>
       <c r="B8">
         <v>10</v>
       </c>
@@ -704,20 +6368,20 @@
         <v>378.72300000000001</v>
       </c>
       <c r="I8">
-        <f>D8/G$1</f>
+        <f t="shared" si="0"/>
         <v>94.680750000000003</v>
       </c>
       <c r="J8">
-        <f>D8/C8</f>
+        <f t="shared" si="1"/>
         <v>0.79555633045407192</v>
       </c>
       <c r="K8">
-        <f>J8/G$1</f>
+        <f t="shared" si="2"/>
         <v>0.19888908261351798</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="8"/>
       <c r="B9">
         <v>0</v>
       </c>
@@ -728,20 +6392,20 @@
         <v>401.322</v>
       </c>
       <c r="I9">
-        <f>D9/G$1</f>
+        <f t="shared" si="0"/>
         <v>100.3305</v>
       </c>
       <c r="J9">
-        <f>D9/C9</f>
+        <f t="shared" si="1"/>
         <v>0.17952755482827942</v>
       </c>
       <c r="K9">
-        <f>J9/G$1</f>
+        <f t="shared" si="2"/>
         <v>4.4881888707069856E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="8">
         <v>100000</v>
       </c>
       <c r="B10">
@@ -754,20 +6418,20 @@
         <v>48.97</v>
       </c>
       <c r="I10">
-        <f>D10/G$1</f>
+        <f t="shared" si="0"/>
         <v>12.2425</v>
       </c>
       <c r="J10">
-        <f>D10/C10</f>
+        <f t="shared" si="1"/>
         <v>2.3783389995143271</v>
       </c>
       <c r="K10">
-        <f>J10/G$1</f>
+        <f t="shared" si="2"/>
         <v>0.59458474987858179</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="8"/>
       <c r="B11">
         <v>1000</v>
       </c>
@@ -778,20 +6442,20 @@
         <v>39.630000000000003</v>
       </c>
       <c r="I11">
-        <f>D11/G$1</f>
+        <f t="shared" si="0"/>
         <v>9.9075000000000006</v>
       </c>
       <c r="J11">
-        <f>D11/C11</f>
+        <f t="shared" si="1"/>
         <v>2.4032747119466347</v>
       </c>
       <c r="K11">
-        <f>J11/G$1</f>
+        <f t="shared" si="2"/>
         <v>0.60081867798665867</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="8"/>
       <c r="B12">
         <v>100</v>
       </c>
@@ -802,20 +6466,20 @@
         <v>41.35</v>
       </c>
       <c r="I12">
-        <f>D12/G$1</f>
+        <f t="shared" si="0"/>
         <v>10.3375</v>
       </c>
       <c r="J12">
-        <f>D12/C12</f>
+        <f t="shared" si="1"/>
         <v>1.5185457216305545</v>
       </c>
       <c r="K12">
-        <f>J12/G$1</f>
+        <f t="shared" si="2"/>
         <v>0.37963643040763861</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="8"/>
       <c r="B13">
         <v>10</v>
       </c>
@@ -826,20 +6490,20 @@
         <v>32.76</v>
       </c>
       <c r="I13">
-        <f>D13/G$1</f>
+        <f t="shared" si="0"/>
         <v>8.19</v>
       </c>
       <c r="J13">
-        <f>D13/C13</f>
+        <f t="shared" si="1"/>
         <v>0.59005763688760804</v>
       </c>
       <c r="K13">
-        <f>J13/G$1</f>
+        <f t="shared" si="2"/>
         <v>0.14751440922190201</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="8"/>
       <c r="B14">
         <v>0</v>
       </c>
@@ -850,20 +6514,20 @@
         <v>42.5</v>
       </c>
       <c r="I14">
-        <f>D14/G$1</f>
+        <f t="shared" si="0"/>
         <v>10.625</v>
       </c>
       <c r="J14">
-        <f>D14/C14</f>
+        <f t="shared" si="1"/>
         <v>0.1926738598241001</v>
       </c>
       <c r="K14">
-        <f>J14/G$1</f>
+        <f t="shared" si="2"/>
         <v>4.8168464956025024E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="8">
         <v>10000</v>
       </c>
       <c r="B15">
@@ -876,20 +6540,20 @@
         <v>2.9262999999999999</v>
       </c>
       <c r="I15">
-        <f>D15/G$1</f>
+        <f t="shared" si="0"/>
         <v>0.73157499999999998</v>
       </c>
       <c r="J15">
-        <f>D15/C15</f>
+        <f t="shared" si="1"/>
         <v>1.7418452380952381</v>
       </c>
       <c r="K15">
-        <f>J15/G$1</f>
+        <f t="shared" si="2"/>
         <v>0.43546130952380951</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="8"/>
       <c r="B16">
         <v>100</v>
       </c>
@@ -900,20 +6564,20 @@
         <v>2.89</v>
       </c>
       <c r="I16">
-        <f>D16/G$1</f>
+        <f t="shared" si="0"/>
         <v>0.72250000000000003</v>
       </c>
       <c r="J16">
-        <f>D16/C16</f>
+        <f t="shared" si="1"/>
         <v>0.92038216560509556</v>
       </c>
       <c r="K16">
-        <f>J16/G$1</f>
+        <f t="shared" si="2"/>
         <v>0.23009554140127389</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="8"/>
       <c r="B17">
         <v>10</v>
       </c>
@@ -924,20 +6588,20 @@
         <v>2.84</v>
       </c>
       <c r="I17">
-        <f>D17/G$1</f>
+        <f t="shared" si="0"/>
         <v>0.71</v>
       </c>
       <c r="J17">
-        <f>D17/C17</f>
+        <f t="shared" si="1"/>
         <v>0.56913827655310611</v>
       </c>
       <c r="K17">
-        <f>J17/G$1</f>
+        <f t="shared" si="2"/>
         <v>0.14228456913827653</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="8"/>
       <c r="B18">
         <v>0</v>
       </c>
@@ -948,20 +6612,20 @@
         <v>2.98</v>
       </c>
       <c r="I18">
-        <f>D18/G$1</f>
+        <f t="shared" si="0"/>
         <v>0.745</v>
       </c>
       <c r="J18">
-        <f>D18/C18</f>
+        <f t="shared" si="1"/>
         <v>9.1326999693533556E-2</v>
       </c>
       <c r="K18">
-        <f>J18/G$1</f>
+        <f t="shared" si="2"/>
         <v>2.2831749923383389E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="8">
         <v>1000</v>
       </c>
       <c r="B19">
@@ -974,20 +6638,20 @@
         <v>0.316</v>
       </c>
       <c r="I19">
-        <f>D19/G$1</f>
+        <f t="shared" si="0"/>
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="J19">
-        <f>D19/C19</f>
+        <f t="shared" si="1"/>
         <v>0.19874213836477986</v>
       </c>
       <c r="K19">
-        <f>J19/G$1</f>
+        <f t="shared" si="2"/>
         <v>4.9685534591194964E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="8"/>
       <c r="B20">
         <v>10</v>
       </c>
@@ -998,20 +6662,20 @@
         <v>0.33100000000000002</v>
       </c>
       <c r="I20">
-        <f>D20/G$1</f>
+        <f t="shared" si="0"/>
         <v>8.2750000000000004E-2</v>
       </c>
       <c r="J20">
-        <f>D20/C20</f>
+        <f t="shared" si="1"/>
         <v>0.76091954022988506</v>
       </c>
       <c r="K20">
-        <f>J20/G$1</f>
+        <f t="shared" si="2"/>
         <v>0.19022988505747127</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="8"/>
       <c r="B21">
         <v>0</v>
       </c>
@@ -1022,20 +6686,20 @@
         <v>0.33900000000000002</v>
       </c>
       <c r="I21">
-        <f>D21/G$1</f>
+        <f t="shared" si="0"/>
         <v>8.4750000000000006E-2</v>
       </c>
       <c r="J21">
-        <f>D21/C21</f>
+        <f t="shared" si="1"/>
         <v>0.10360635696821517</v>
       </c>
       <c r="K21">
-        <f>J21/G$1</f>
+        <f t="shared" si="2"/>
         <v>2.5901589242053793E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="8">
         <v>100</v>
       </c>
       <c r="B22">
@@ -1048,20 +6712,20 @@
         <v>2.3E-2</v>
       </c>
       <c r="I22">
-        <f>D22/G$1</f>
+        <f t="shared" si="0"/>
         <v>5.7499999999999999E-3</v>
       </c>
       <c r="J22">
-        <f>D22/C22</f>
+        <f t="shared" si="1"/>
         <v>0.16788321167883211</v>
       </c>
       <c r="K22">
-        <f>J22/G$1</f>
+        <f t="shared" si="2"/>
         <v>4.1970802919708027E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="8"/>
       <c r="B23">
         <v>0</v>
       </c>
@@ -1072,15 +6736,15 @@
         <v>2.3E-2</v>
       </c>
       <c r="I23">
-        <f>D23/G$1</f>
+        <f t="shared" si="0"/>
         <v>5.7499999999999999E-3</v>
       </c>
       <c r="J23">
-        <f>D23/C23</f>
+        <f t="shared" si="1"/>
         <v>9.2741935483870969E-2</v>
       </c>
       <c r="K23">
-        <f>J23/G$1</f>
+        <f t="shared" si="2"/>
         <v>2.3185483870967742E-2</v>
       </c>
     </row>
@@ -1098,15 +6762,15 @@
         <v>2.3E-3</v>
       </c>
       <c r="I24">
-        <f>D24/G$1</f>
+        <f t="shared" si="0"/>
         <v>5.7499999999999999E-4</v>
       </c>
       <c r="J24">
-        <f>D24/C24</f>
+        <f t="shared" si="1"/>
         <v>2.3772609819121444E-3</v>
       </c>
       <c r="K24">
-        <f>J24/G$1</f>
+        <f t="shared" si="2"/>
         <v>5.9431524547803611E-4</v>
       </c>
     </row>
@@ -1147,7 +6811,7 @@
     <mergeCell ref="A19:A21"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J24">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1158,497 +6822,2071 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00D8D29-B672-4019-9430-2E3A7CBE7BD2}">
-  <dimension ref="A1:K24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47036BAA-811D-4DC3-864A-A4F0B2D327B2}">
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="4" t="s">
+      <c r="H1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E2" s="9"/>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
       <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>1000000</v>
       </c>
       <c r="B4">
         <v>100000</v>
       </c>
-      <c r="I4">
-        <f>D4/G$1</f>
-        <v>0</v>
-      </c>
-      <c r="J4" t="e">
-        <f>D4/C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" t="e">
-        <f>J4/G$1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="C4" s="7">
+        <f>B4/A$4</f>
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>52.033000000000001</v>
+      </c>
+      <c r="E4" s="5">
+        <v>140.834</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J24" si="0">E4/H$1</f>
+        <v>35.208500000000001</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K24" si="1">E4/D4</f>
+        <v>2.7066284857686469</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L24" si="2">K4/H$1</f>
+        <v>0.67665712144216172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
       <c r="B5">
         <v>10000</v>
       </c>
-      <c r="I5">
-        <f>D5/G$1</f>
-        <v>0</v>
-      </c>
-      <c r="J5" t="e">
-        <f>D5/C5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" t="e">
-        <f>J5/G$1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="C5" s="7">
+        <f t="shared" ref="C5:C9" si="3">B5/A$4</f>
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="5">
+        <v>52.021999999999998</v>
+      </c>
+      <c r="E5" s="5">
+        <v>141.24600000000001</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>35.311500000000002</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>2.7151205259313369</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0.67878013148283423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
       <c r="B6">
         <v>1000</v>
       </c>
-      <c r="I6">
-        <f>D6/G$1</f>
-        <v>0</v>
-      </c>
-      <c r="J6" t="e">
-        <f>D6/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" t="e">
-        <f>J6/G$1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="C6" s="7">
+        <f t="shared" si="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>52.195</v>
+      </c>
+      <c r="E6" s="5">
+        <v>141.25</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>35.3125</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>2.7061979116773638</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0.67654947791934095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
       <c r="B7">
         <v>100</v>
       </c>
-      <c r="I7">
-        <f>D7/G$1</f>
-        <v>0</v>
-      </c>
-      <c r="J7" t="e">
-        <f>D7/C7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" t="e">
-        <f>J7/G$1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="C7" s="7">
+        <f t="shared" si="3"/>
+        <v>1E-4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>54.472999999999999</v>
+      </c>
+      <c r="E7" s="5">
+        <v>140.70599999999999</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>35.176499999999997</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>2.5830411396471646</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.64576028491179116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="I8">
-        <f>D8/G$1</f>
-        <v>0</v>
-      </c>
-      <c r="J8" t="e">
-        <f>D8/C8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" t="e">
-        <f>J8/G$1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="C8" s="7">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>103.27</v>
+      </c>
+      <c r="E8" s="5">
+        <v>140.197</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>35.049250000000001</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>1.3575772247506537</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.33939430618766342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="I9">
-        <f>D9/G$1</f>
+      <c r="C9" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J9" t="e">
-        <f>D9/C9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" t="e">
-        <f>J9/G$1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="D9" s="3">
+        <v>713.91700000000003</v>
+      </c>
+      <c r="E9" s="5">
+        <v>141.078</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>35.269500000000001</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0.19761120690500436</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>4.940280172625109E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>100000</v>
       </c>
       <c r="B10">
         <v>10000</v>
       </c>
-      <c r="I10">
-        <f>D10/G$1</f>
-        <v>0</v>
-      </c>
-      <c r="J10" t="e">
-        <f>D10/C10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" t="e">
-        <f>J10/G$1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="C10" s="7">
+        <f>B10/A$10</f>
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5.2539999999999996</v>
+      </c>
+      <c r="E10" s="5">
+        <v>13.348000000000001</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>3.3370000000000002</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>2.5405405405405408</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.6351351351351352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
       <c r="B11">
         <v>1000</v>
       </c>
-      <c r="I11">
-        <f>D11/G$1</f>
-        <v>0</v>
-      </c>
-      <c r="J11" t="e">
-        <f>D11/C11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" t="e">
-        <f>J11/G$1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="C11" s="7">
+        <f t="shared" ref="C11:C14" si="4">B11/A$10</f>
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5.5439999999999996</v>
+      </c>
+      <c r="E11" s="5">
+        <v>12.683999999999999</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>3.1709999999999998</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>2.2878787878787881</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.57196969696969702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
       <c r="B12">
         <v>100</v>
       </c>
-      <c r="I12">
-        <f>D12/G$1</f>
-        <v>0</v>
-      </c>
-      <c r="J12" t="e">
-        <f>D12/C12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" t="e">
-        <f>J12/G$1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="C12" s="7">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5.165</v>
+      </c>
+      <c r="E12" s="5">
+        <v>12.702</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>3.1755</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>2.4592449177153921</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0.61481122942884803</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="I13">
-        <f>D13/G$1</f>
-        <v>0</v>
-      </c>
-      <c r="J13" t="e">
-        <f>D13/C13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" t="e">
-        <f>J13/G$1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="C13" s="7">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="D13" s="5">
+        <v>12.452</v>
+      </c>
+      <c r="E13" s="5">
+        <v>12.611000000000001</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>3.1527500000000002</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>1.0127690330870542</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0.25319225827176356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="I14">
-        <f>D14/G$1</f>
+      <c r="C14" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J14" t="e">
-        <f>D14/C14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" t="e">
-        <f>J14/G$1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="D14" s="3">
+        <v>70.932000000000002</v>
+      </c>
+      <c r="E14" s="5">
+        <v>12.641</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>3.16025</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0.17821293633338972</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>4.455323408334743E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>10000</v>
       </c>
       <c r="B15">
         <v>1000</v>
       </c>
-      <c r="I15">
-        <f>D15/G$1</f>
-        <v>0</v>
-      </c>
-      <c r="J15" t="e">
-        <f>D15/C15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K15" t="e">
-        <f>J15/G$1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="C15" s="7">
+        <f>B15/A$15</f>
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1.143</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.28575</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>2.2237354085603114</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0.55593385214007784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
       <c r="B16">
         <v>100</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="I16">
-        <f>D16/G$1</f>
-        <v>0</v>
-      </c>
-      <c r="J16" t="e">
-        <f>D16/C16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K16" t="e">
-        <f>J16/G$1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="C16" s="7">
+        <f t="shared" ref="C16:C18" si="5">B16/A$15</f>
+        <v>0.01</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.28549999999999998</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>2.171102661596958</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0.54277566539923949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
       <c r="B17">
         <v>10</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="I17">
-        <f>D17/G$1</f>
-        <v>0</v>
-      </c>
-      <c r="J17" t="e">
-        <f>D17/C17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" t="e">
-        <f>J17/G$1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="C17" s="7">
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1.153</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0.28825000000000001</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>1.2926008968609866</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0.32315022421524664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="I18">
-        <f>D18/G$1</f>
+      <c r="C18" s="7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J18" t="e">
-        <f>D18/C18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" t="e">
-        <f>J18/G$1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="D18" s="3">
+        <v>7.0759999999999996</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1.135</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0.28375</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>0.16040135669869984</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>4.0100339174674961E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>1000</v>
       </c>
       <c r="B19">
         <v>100</v>
       </c>
-      <c r="I19">
-        <f>D19/G$1</f>
-        <v>0</v>
-      </c>
-      <c r="J19" t="e">
-        <f>D19/C19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" t="e">
-        <f>J19/G$1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="C19" s="7">
+        <f>B19/A$19</f>
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.373</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>9.325E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>1.3041958041958044</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>0.3260489510489511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
       <c r="B20">
         <v>10</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="I20">
-        <f>D20/G$1</f>
-        <v>0</v>
-      </c>
-      <c r="J20" t="e">
-        <f>D20/C20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" t="e">
-        <f>J20/G$1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="C20" s="7">
+        <f t="shared" ref="C20:C21" si="6">B20/A$19</f>
+        <v>0.01</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>1.0756756756756758</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>0.26891891891891895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="I21">
-        <f>D21/G$1</f>
+      <c r="C21" s="7">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J21" t="e">
-        <f>D21/C21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" t="e">
-        <f>J21/G$1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="D21" s="3">
+        <v>1.06</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>0.37735849056603776</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>9.4339622641509441E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>100</v>
       </c>
       <c r="B22">
         <v>10</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="I22">
-        <f>D22/G$1</f>
-        <v>0</v>
-      </c>
-      <c r="J22" t="e">
-        <f>D22/C22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" t="e">
-        <f>J22/G$1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="C22" s="7">
+        <f>B22/A$22</f>
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>6.8181818181818177E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="I23">
-        <f>D23/G$1</f>
+      <c r="C23" s="7">
+        <f>B23/A$22</f>
         <v>0</v>
       </c>
-      <c r="J23" t="e">
-        <f>D23/C23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" t="e">
-        <f>J23/G$1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="D23" s="3">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>8.8757396449704137E-2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>2.2189349112426034E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>10</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="I24">
-        <f>D24/G$1</f>
+      <c r="C24" s="7">
+        <f t="shared" ref="C24" si="7">B24/A24</f>
         <v>0</v>
       </c>
-      <c r="J24" t="e">
-        <f>D24/C24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" t="e">
-        <f>J24/G$1</f>
-        <v>#DIV/0!</v>
+      <c r="D24" s="3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>3.0588235294117642E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>7.6470588235294104E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A21"/>
+  </mergeCells>
+  <conditionalFormatting sqref="K4:K24">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00D8D29-B672-4019-9430-2E3A7CBE7BD2}">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="B4">
+        <v>100000</v>
+      </c>
+      <c r="C4" s="7">
+        <f>B4/A$4</f>
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>36.67</v>
+      </c>
+      <c r="E4">
+        <v>136.09</v>
+      </c>
+      <c r="J4">
+        <f>E4/H$1</f>
+        <v>17.01125</v>
+      </c>
+      <c r="K4">
+        <f>E4/D4</f>
+        <v>3.7112080719934553</v>
+      </c>
+      <c r="L4">
+        <f>K4/H$1</f>
+        <v>0.46390100899918191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" ref="C5:C9" si="0">B5/A$4</f>
+        <v>0.01</v>
+      </c>
+      <c r="D5">
+        <v>38.520000000000003</v>
+      </c>
+      <c r="E5">
+        <v>140.83000000000001</v>
+      </c>
+      <c r="J5">
+        <f>E5/H$1</f>
+        <v>17.603750000000002</v>
+      </c>
+      <c r="K5">
+        <f>E5/D5</f>
+        <v>3.656022845275182</v>
+      </c>
+      <c r="L5">
+        <f>K5/H$1</f>
+        <v>0.45700285565939774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="D6">
+        <v>38.770000000000003</v>
+      </c>
+      <c r="E6">
+        <v>142.54</v>
+      </c>
+      <c r="J6">
+        <f>E6/H$1</f>
+        <v>17.817499999999999</v>
+      </c>
+      <c r="K6">
+        <f>E6/D6</f>
+        <v>3.676554036626257</v>
+      </c>
+      <c r="L6">
+        <f>K6/H$1</f>
+        <v>0.45956925457828213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>1E-4</v>
+      </c>
+      <c r="D7">
+        <v>39.378</v>
+      </c>
+      <c r="E7">
+        <v>140.69</v>
+      </c>
+      <c r="J7">
+        <f>E7/H$1</f>
+        <v>17.58625</v>
+      </c>
+      <c r="K7">
+        <f>E7/D7</f>
+        <v>3.5728071512011783</v>
+      </c>
+      <c r="L7">
+        <f>K7/H$1</f>
+        <v>0.44660089390014729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D8">
+        <v>133.5</v>
+      </c>
+      <c r="E8">
+        <v>136.22</v>
+      </c>
+      <c r="J8">
+        <f>E8/H$1</f>
+        <v>17.0275</v>
+      </c>
+      <c r="K8">
+        <f>E8/D8</f>
+        <v>1.020374531835206</v>
+      </c>
+      <c r="L8">
+        <f>K8/H$1</f>
+        <v>0.12754681647940075</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1018.1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>137.05000000000001</v>
+      </c>
+      <c r="J9">
+        <f>E9/H$1</f>
+        <v>17.131250000000001</v>
+      </c>
+      <c r="K9">
+        <f>E9/D9</f>
+        <v>0.13461349572733525</v>
+      </c>
+      <c r="L9">
+        <f>K9/H$1</f>
+        <v>1.6826686965916906E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>100000</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10" s="7">
+        <f>B10/A$10</f>
+        <v>0.1</v>
+      </c>
+      <c r="D10">
+        <v>3.7</v>
+      </c>
+      <c r="E10">
+        <v>12.37</v>
+      </c>
+      <c r="J10">
+        <f>E10/H$1</f>
+        <v>1.5462499999999999</v>
+      </c>
+      <c r="K10">
+        <f>E10/D10</f>
+        <v>3.3432432432432431</v>
+      </c>
+      <c r="L10">
+        <f>K10/H$1</f>
+        <v>0.41790540540540538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" ref="C11:C14" si="1">B11/A$10</f>
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>3.44</v>
+      </c>
+      <c r="E11">
+        <v>12.4</v>
+      </c>
+      <c r="J11">
+        <f>E11/H$1</f>
+        <v>1.55</v>
+      </c>
+      <c r="K11">
+        <f>E11/D11</f>
+        <v>3.6046511627906979</v>
+      </c>
+      <c r="L11">
+        <f>K11/H$1</f>
+        <v>0.45058139534883723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="D12">
+        <v>4.04</v>
+      </c>
+      <c r="E12">
+        <v>16.3</v>
+      </c>
+      <c r="J12">
+        <f>E12/H$1</f>
+        <v>2.0375000000000001</v>
+      </c>
+      <c r="K12">
+        <f>E12/D12</f>
+        <v>4.0346534653465351</v>
+      </c>
+      <c r="L12">
+        <f>K12/H$1</f>
+        <v>0.50433168316831689</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="1"/>
+        <v>1E-4</v>
+      </c>
+      <c r="D13" s="3">
+        <v>15.95</v>
+      </c>
+      <c r="E13" s="3">
+        <v>12.36</v>
+      </c>
+      <c r="J13">
+        <f>E13/H$1</f>
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="K13">
+        <f>E13/D13</f>
+        <v>0.77492163009404391</v>
+      </c>
+      <c r="L13">
+        <f>K13/H$1</f>
+        <v>9.6865203761755489E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>97.21</v>
+      </c>
+      <c r="E14" s="3">
+        <v>21.8</v>
+      </c>
+      <c r="J14">
+        <f>E14/H$1</f>
+        <v>2.7250000000000001</v>
+      </c>
+      <c r="K14">
+        <f>E14/D14</f>
+        <v>0.22425676370743752</v>
+      </c>
+      <c r="L14">
+        <f>K14/H$1</f>
+        <v>2.803209546342969E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>10000</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="7">
+        <f>B15/A$15</f>
+        <v>0.1</v>
+      </c>
+      <c r="D15">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="E15">
+        <v>1.4</v>
+      </c>
+      <c r="J15">
+        <f>E15/H$1</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K15">
+        <f>E15/D15</f>
+        <v>2.2838499184339316</v>
+      </c>
+      <c r="L15">
+        <f>K15/H$1</f>
+        <v>0.28548123980424145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" ref="C16:C18" si="2">B16/A$15</f>
+        <v>0.01</v>
+      </c>
+      <c r="D16">
+        <v>0.625</v>
+      </c>
+      <c r="E16">
+        <v>1.39</v>
+      </c>
+      <c r="J16">
+        <f>E16/H$1</f>
+        <v>0.17374999999999999</v>
+      </c>
+      <c r="K16">
+        <f>E16/D16</f>
+        <v>2.2239999999999998</v>
+      </c>
+      <c r="L16">
+        <f>K16/H$1</f>
+        <v>0.27799999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="D17">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E17">
+        <v>1.41</v>
+      </c>
+      <c r="J17">
+        <f>E17/H$1</f>
+        <v>0.17624999999999999</v>
+      </c>
+      <c r="K17">
+        <f>E17/D17</f>
+        <v>1.2155172413793103</v>
+      </c>
+      <c r="L17">
+        <f>K17/H$1</f>
+        <v>0.15193965517241378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>8.75</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="J18">
+        <f>E18/H$1</f>
+        <v>0.17374999999999999</v>
+      </c>
+      <c r="K18">
+        <f>E18/D18</f>
+        <v>0.15885714285714284</v>
+      </c>
+      <c r="L18">
+        <f>K18/H$1</f>
+        <v>1.9857142857142854E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>1000</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19" s="7">
+        <f>B19/A$19</f>
+        <v>0.1</v>
+      </c>
+      <c r="D19">
+        <v>0.27</v>
+      </c>
+      <c r="E19">
+        <v>0.36</v>
+      </c>
+      <c r="J19">
+        <f>E19/H$1</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K19">
+        <f>E19/D19</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L19">
+        <f>K19/H$1</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" ref="C20:C21" si="3">B20/A$19</f>
+        <v>0.01</v>
+      </c>
+      <c r="D20">
+        <v>0.37</v>
+      </c>
+      <c r="E20">
+        <v>0.4</v>
+      </c>
+      <c r="J20">
+        <f>E20/H$1</f>
+        <v>0.05</v>
+      </c>
+      <c r="K20">
+        <f>E20/D20</f>
+        <v>1.0810810810810811</v>
+      </c>
+      <c r="L20">
+        <f>K20/H$1</f>
+        <v>0.13513513513513514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.21</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="J21">
+        <f>E21/H$1</f>
+        <v>4.6249999999999999E-2</v>
+      </c>
+      <c r="K21">
+        <f>E21/D21</f>
+        <v>0.30578512396694213</v>
+      </c>
+      <c r="L21">
+        <f>K21/H$1</f>
+        <v>3.8223140495867766E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <f>B22/A$22</f>
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.183</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="J22">
+        <f>E22/H$1</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K22">
+        <f>E22/D22</f>
+        <v>0.21857923497267762</v>
+      </c>
+      <c r="L22">
+        <f>K22/H$1</f>
+        <v>2.7322404371584702E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
+        <f>B23/A$22</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.377</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="J23">
+        <f>E23/H$1</f>
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="K23">
+        <f>E23/D23</f>
+        <v>7.9575596816976124E-2</v>
+      </c>
+      <c r="L23">
+        <f>K23/H$1</f>
+        <v>9.9469496021220155E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" ref="C24" si="4">B24/A24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="J24">
+        <f>E24/H$1</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="K24">
+        <f>E24/D24</f>
+        <v>1.388888888888889E-2</v>
+      </c>
+      <c r="L24">
+        <f>K24/H$1</f>
+        <v>1.7361111111111112E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A21"/>
   </mergeCells>
-  <conditionalFormatting sqref="J4:J24">
+  <conditionalFormatting sqref="K4:K24">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114D4CF2-C79F-4490-978F-5FCDB359303E}">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="B4">
+        <v>100000</v>
+      </c>
+      <c r="C4" s="7">
+        <f>B4/A$4</f>
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>34.69</v>
+      </c>
+      <c r="E4">
+        <v>136.465</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J24" si="0">E4/H$1</f>
+        <v>11.372083333333334</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K24" si="1">E4/D4</f>
+        <v>3.9338426059383109</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L24" si="2">K4/H$1</f>
+        <v>0.32782021716152593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" ref="C5:C9" si="3">B5/A$4</f>
+        <v>0.01</v>
+      </c>
+      <c r="D5">
+        <v>34.36</v>
+      </c>
+      <c r="E5">
+        <v>135.99</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>11.332500000000001</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>3.9577997671711294</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0.3298166472642608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="D6">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E6">
+        <v>137.74</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>11.478333333333333</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>3.9580459770114946</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0.32983716475095787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="3"/>
+        <v>1E-4</v>
+      </c>
+      <c r="D7">
+        <v>36.35</v>
+      </c>
+      <c r="E7">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>11.483333333333334</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>3.7909215955983497</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.31591013296652914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>150.06</v>
+      </c>
+      <c r="E8" s="3">
+        <v>140.27000000000001</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>11.689166666666667</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0.93475942956150881</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>7.789661913012573E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1070.22</v>
+      </c>
+      <c r="E9" s="3">
+        <v>136.34</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>11.361666666666666</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0.12739436751322158</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>1.0616197292768465E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>100000</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10" s="7">
+        <f>B10/A$10</f>
+        <v>0.1</v>
+      </c>
+      <c r="D10">
+        <v>3.55</v>
+      </c>
+      <c r="E10">
+        <v>12.41</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>1.0341666666666667</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>3.4957746478873242</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.29131455399061035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" ref="C11:C14" si="4">B11/A$10</f>
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>3.31</v>
+      </c>
+      <c r="E11">
+        <v>12.56</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>1.0466666666666666</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>3.7945619335347431</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.31621349446122859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="D12">
+        <v>3.31</v>
+      </c>
+      <c r="E12">
+        <v>12.44</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>1.0366666666666666</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>3.7583081570996977</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0.31319234642497479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="D13" s="3">
+        <v>18.7</v>
+      </c>
+      <c r="E13" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1.0166666666666666</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0.65240641711229941</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>5.4367201426024948E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>102.77</v>
+      </c>
+      <c r="E14" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>1.0250000000000001</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0.11968473289870586</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>9.9737277415588212E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>10000</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="7">
+        <f>B15/A$15</f>
+        <v>0.1</v>
+      </c>
+      <c r="D15">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="E15">
+        <v>1.373</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.11441666666666667</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>2.4694244604316546</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0.20578537170263789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" ref="C16:C18" si="5">B16/A$15</f>
+        <v>0.01</v>
+      </c>
+      <c r="D16">
+        <v>0.6</v>
+      </c>
+      <c r="E16">
+        <v>1.4730000000000001</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.12275000000000001</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>2.4550000000000001</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0.20458333333333334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.409</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.405</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0.11708333333333333</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>0.99716110716820439</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>8.3096758930683703E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>9.84</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.33</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0.11083333333333334</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>0.13516260162601626</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>1.1263550135501356E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>1000</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19" s="7">
+        <f>B19/A$19</f>
+        <v>0.1</v>
+      </c>
+      <c r="D19">
+        <v>0.312</v>
+      </c>
+      <c r="E19">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>1.2307692307692308</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>0.10256410256410257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" ref="C20:C21" si="6">B20/A$19</f>
+        <v>0.01</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>3.4833333333333334E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>1.0048076923076923</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>8.3733974358974353E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>0.26277372262773718</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>2.18978102189781E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <f>B22/A$22</f>
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>2.4166666666666668E-3</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>0.12083333333333335</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>1.0069444444444445E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
+        <f>B23/A$22</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>7.1770334928229665E-2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>5.9808612440191387E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" ref="C24" si="7">B24/A24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>2.1666666666666666E-4</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>1.2682926829268294E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>1.0569105691056911E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A21"/>
+  </mergeCells>
+  <conditionalFormatting sqref="K4:K24">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/metricas.xlsx
+++ b/metricas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cefetrjbr-my.sharepoint.com/personal/15523134767_cefet-rj_br/Documents/Documentos/MESTRADO - PPCIC/DISCIPLINAS/3_2022_2/CPD/Trab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="275" documentId="13_ncr:1_{25C4958C-A65F-469B-A3B0-F1777EFACEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB975536-4121-4939-AA94-6A69D77BD420}"/>
+  <xr:revisionPtr revIDLastSave="356" documentId="13_ncr:1_{25C4958C-A65F-469B-A3B0-F1777EFACEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9507A143-78B4-48EB-B76A-7B583A7030E1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{9118BE6C-1281-4F21-BE84-F0C29BEEA49E}"/>
   </bookViews>
@@ -167,8 +167,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -226,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,6 +248,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,7 +356,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> = 1000000 , 4 threads</a:t>
+              <a:t> = 10^6 | 4 threads</a:t>
             </a:r>
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
@@ -775,7 +786,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Castor - 4 Threads'!$C$4:$C$9</c15:sqref>
@@ -808,7 +819,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Castor - 4 Threads'!$L$4:$L$24</c15:sqref>
@@ -885,7 +896,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-76E1-4CD6-8834-2352305D509D}"/>
                   </c:ext>
@@ -902,6 +913,74 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" i="1"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" i="0"/>
+                  <a:t> (em % de </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" i="1"/>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" i="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR" i="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1125,7 +1204,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> = 1000000 , 8 threads</a:t>
+              <a:t> = 10^6 | 8 threads</a:t>
             </a:r>
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
@@ -1555,7 +1634,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Castor - 8 Threads'!$C$4:$C$9</c15:sqref>
@@ -1665,7 +1744,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-15BC-4FFE-8F16-5D5014D633D7}"/>
                   </c:ext>
@@ -1682,6 +1761,74 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" i="1"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" i="0" baseline="0"/>
+                  <a:t> (em % de </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" i="1" baseline="0"/>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" i="0" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR" i="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1781,7 +1928,7 @@
         <c:crossAx val="1187676719"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.2"/>
+        <c:majorUnit val="0.25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1900,12 +2047,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-BR"/>
+              <a:rPr lang="pt-BR" i="1"/>
               <a:t>n</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> = 1000000 , 12 threads</a:t>
+              <a:t> = 10^6 | 12 threads</a:t>
             </a:r>
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
@@ -2015,7 +2162,7 @@
             <c:numRef>
               <c:f>'Castor - 12 Threads'!$K$4:$K$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3.9338426059383109</c:v>
@@ -2114,7 +2261,7 @@
             <c:numRef>
               <c:f>'Castor - 12 Threads'!$L$4:$L$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.32782021716152593</c:v>
@@ -2335,7 +2482,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Castor - 12 Threads'!$C$4:$C$9</c15:sqref>
@@ -2445,7 +2592,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-11EC-4DB6-85CD-43669F080EE3}"/>
                   </c:ext>
@@ -2462,6 +2609,73 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" i="1"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t> (em % de </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" i="1"/>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2527,7 +2741,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2561,7 +2775,7 @@
         <c:crossAx val="1187676719"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.2"/>
+        <c:majorUnit val="0.25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2681,7 +2895,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Eficiência (n = 1000000)</a:t>
+              <a:t>Eficiência |</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" i="1"/>
+              <a:t>n</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t> = 10^6</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2988,7 +3214,7 @@
             <c:numRef>
               <c:f>'Castor - 12 Threads'!$L$4:$L$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.32782021716152593</c:v>
@@ -3209,7 +3435,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Castor - 12 Threads'!$C$4:$C$9</c15:sqref>
@@ -3319,7 +3545,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-7AAF-4CF6-B4A3-4B67DAB83352}"/>
                   </c:ext>
@@ -3336,6 +3562,78 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" i="1"/>
+                  <a:t>t </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" i="0"/>
+                  <a:t>(em</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" i="0" baseline="0"/>
+                  <a:t> % de </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" i="1" baseline="0"/>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" i="0" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR" i="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3436,6 +3734,835 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" i="1"/>
+              <a:t>n</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> = 10^5 | 12 threads</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Castor - 12 Threads'!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speedup real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Castor - 12 Threads'!$C$10:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Castor - 12 Threads'!$K$10:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.4957746478873242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7945619335347431</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7583081570996977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65240641711229941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11968473289870586</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-463A-4F7F-989F-70969ACD8A73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Castor - 12 Threads'!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Eficiência</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Castor - 12 Threads'!$C$10:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Castor - 12 Threads'!$L$10:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.29131455399061035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31621349446122859</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31319234642497479</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4367201426024948E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9737277415588212E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-463A-4F7F-989F-70969ACD8A73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1187676719"/>
+        <c:axId val="1184097103"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Castor - 12 Threads'!$C$10:$C$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Castor - 4 Threads'!$K$4:$K$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>2.7066284857686469</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.7151205259313369</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.7061979116773638</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.5830411396471646</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.3575772247506537</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.19761120690500436</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.5405405405405408</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.2878787878787881</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.4592449177153921</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.0127690330870542</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.17821293633338972</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.2237354085603114</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.171102661596958</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.2926008968609866</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.16040135669869984</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.3041958041958044</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.0756756756756758</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.37735849056603776</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.27272727272727271</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>8.8757396449704137E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3.0588235294117642E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-463A-4F7F-989F-70969ACD8A73}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Castor - 12 Threads'!$C$10:$C$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Castor - 4 Threads'!$L$4:$L$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>0.67665712144216172</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.67878013148283423</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.67654947791934095</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.64576028491179116</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.33939430618766342</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.940280172625109E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6351351351351352</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.57196969696969702</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.61481122942884803</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.25319225827176356</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4.455323408334743E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.55593385214007784</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.54277566539923949</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.32315022421524664</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>4.0100339174674961E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.3260489510489511</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.26891891891891895</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>9.4339622641509441E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>6.8181818181818177E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2.2189349112426034E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>7.6470588235294104E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-463A-4F7F-989F-70969ACD8A73}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1187676719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" i="1"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t> (em % de </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" i="1"/>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184097103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1184097103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1187676719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3680,6 +4807,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -5190,6 +6357,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5849,6 +7519,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E39746-B596-49ED-976B-223753E85622}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6825,13 +8533,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47036BAA-811D-4DC3-864A-A4F0B2D327B2}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
@@ -6892,7 +8600,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="10">
         <v>1000000</v>
       </c>
       <c r="B4">
@@ -6922,7 +8630,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="10"/>
       <c r="B5">
         <v>10000</v>
       </c>
@@ -6950,7 +8658,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="10"/>
       <c r="B6">
         <v>1000</v>
       </c>
@@ -6978,7 +8686,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="10"/>
       <c r="B7">
         <v>100</v>
       </c>
@@ -7006,7 +8714,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="10"/>
       <c r="B8">
         <v>10</v>
       </c>
@@ -7034,7 +8742,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="10"/>
       <c r="B9">
         <v>0</v>
       </c>
@@ -7062,7 +8770,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="11">
         <v>100000</v>
       </c>
       <c r="B10">
@@ -7204,7 +8912,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="11">
         <v>10000</v>
       </c>
       <c r="B15">
@@ -7318,7 +9026,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="11">
         <v>1000</v>
       </c>
       <c r="B19">
@@ -7404,7 +9112,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="11">
         <v>100</v>
       </c>
       <c r="B22">
@@ -7462,7 +9170,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="12">
         <v>10</v>
       </c>
       <c r="B24">
@@ -7515,8 +9223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00D8D29-B672-4019-9430-2E3A7CBE7BD2}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7599,15 +9307,15 @@
         <v>136.09</v>
       </c>
       <c r="J4">
-        <f>E4/H$1</f>
+        <f t="shared" ref="J4:J24" si="0">E4/H$1</f>
         <v>17.01125</v>
       </c>
       <c r="K4">
-        <f>E4/D4</f>
+        <f t="shared" ref="K4:K24" si="1">E4/D4</f>
         <v>3.7112080719934553</v>
       </c>
       <c r="L4">
-        <f>K4/H$1</f>
+        <f t="shared" ref="L4:L24" si="2">K4/H$1</f>
         <v>0.46390100899918191</v>
       </c>
     </row>
@@ -7617,7 +9325,7 @@
         <v>10000</v>
       </c>
       <c r="C5" s="7">
-        <f t="shared" ref="C5:C9" si="0">B5/A$4</f>
+        <f t="shared" ref="C5:C9" si="3">B5/A$4</f>
         <v>0.01</v>
       </c>
       <c r="D5">
@@ -7627,15 +9335,15 @@
         <v>140.83000000000001</v>
       </c>
       <c r="J5">
-        <f>E5/H$1</f>
+        <f t="shared" si="0"/>
         <v>17.603750000000002</v>
       </c>
       <c r="K5">
-        <f>E5/D5</f>
+        <f t="shared" si="1"/>
         <v>3.656022845275182</v>
       </c>
       <c r="L5">
-        <f>K5/H$1</f>
+        <f t="shared" si="2"/>
         <v>0.45700285565939774</v>
       </c>
     </row>
@@ -7645,7 +9353,7 @@
         <v>1000</v>
       </c>
       <c r="C6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1E-3</v>
       </c>
       <c r="D6">
@@ -7655,15 +9363,15 @@
         <v>142.54</v>
       </c>
       <c r="J6">
-        <f>E6/H$1</f>
+        <f t="shared" si="0"/>
         <v>17.817499999999999</v>
       </c>
       <c r="K6">
-        <f>E6/D6</f>
+        <f t="shared" si="1"/>
         <v>3.676554036626257</v>
       </c>
       <c r="L6">
-        <f>K6/H$1</f>
+        <f t="shared" si="2"/>
         <v>0.45956925457828213</v>
       </c>
     </row>
@@ -7673,7 +9381,7 @@
         <v>100</v>
       </c>
       <c r="C7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1E-4</v>
       </c>
       <c r="D7">
@@ -7683,15 +9391,15 @@
         <v>140.69</v>
       </c>
       <c r="J7">
-        <f>E7/H$1</f>
+        <f t="shared" si="0"/>
         <v>17.58625</v>
       </c>
       <c r="K7">
-        <f>E7/D7</f>
+        <f t="shared" si="1"/>
         <v>3.5728071512011783</v>
       </c>
       <c r="L7">
-        <f>K7/H$1</f>
+        <f t="shared" si="2"/>
         <v>0.44660089390014729</v>
       </c>
     </row>
@@ -7701,7 +9409,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D8">
@@ -7711,15 +9419,15 @@
         <v>136.22</v>
       </c>
       <c r="J8">
-        <f>E8/H$1</f>
+        <f t="shared" si="0"/>
         <v>17.0275</v>
       </c>
       <c r="K8">
-        <f>E8/D8</f>
+        <f t="shared" si="1"/>
         <v>1.020374531835206</v>
       </c>
       <c r="L8">
-        <f>K8/H$1</f>
+        <f t="shared" si="2"/>
         <v>0.12754681647940075</v>
       </c>
     </row>
@@ -7729,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D9" s="3">
@@ -7739,15 +9447,15 @@
         <v>137.05000000000001</v>
       </c>
       <c r="J9">
-        <f>E9/H$1</f>
+        <f t="shared" si="0"/>
         <v>17.131250000000001</v>
       </c>
       <c r="K9">
-        <f>E9/D9</f>
+        <f t="shared" si="1"/>
         <v>0.13461349572733525</v>
       </c>
       <c r="L9">
-        <f>K9/H$1</f>
+        <f t="shared" si="2"/>
         <v>1.6826686965916906E-2</v>
       </c>
     </row>
@@ -7769,15 +9477,15 @@
         <v>12.37</v>
       </c>
       <c r="J10">
-        <f>E10/H$1</f>
+        <f t="shared" si="0"/>
         <v>1.5462499999999999</v>
       </c>
       <c r="K10">
-        <f>E10/D10</f>
+        <f t="shared" si="1"/>
         <v>3.3432432432432431</v>
       </c>
       <c r="L10">
-        <f>K10/H$1</f>
+        <f t="shared" si="2"/>
         <v>0.41790540540540538</v>
       </c>
     </row>
@@ -7787,7 +9495,7 @@
         <v>1000</v>
       </c>
       <c r="C11" s="7">
-        <f t="shared" ref="C11:C14" si="1">B11/A$10</f>
+        <f t="shared" ref="C11:C14" si="4">B11/A$10</f>
         <v>0.01</v>
       </c>
       <c r="D11">
@@ -7797,15 +9505,15 @@
         <v>12.4</v>
       </c>
       <c r="J11">
-        <f>E11/H$1</f>
+        <f t="shared" si="0"/>
         <v>1.55</v>
       </c>
       <c r="K11">
-        <f>E11/D11</f>
+        <f t="shared" si="1"/>
         <v>3.6046511627906979</v>
       </c>
       <c r="L11">
-        <f>K11/H$1</f>
+        <f t="shared" si="2"/>
         <v>0.45058139534883723</v>
       </c>
     </row>
@@ -7815,7 +9523,7 @@
         <v>100</v>
       </c>
       <c r="C12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
       <c r="D12">
@@ -7825,15 +9533,15 @@
         <v>16.3</v>
       </c>
       <c r="J12">
-        <f>E12/H$1</f>
+        <f t="shared" si="0"/>
         <v>2.0375000000000001</v>
       </c>
       <c r="K12">
-        <f>E12/D12</f>
+        <f t="shared" si="1"/>
         <v>4.0346534653465351</v>
       </c>
       <c r="L12">
-        <f>K12/H$1</f>
+        <f t="shared" si="2"/>
         <v>0.50433168316831689</v>
       </c>
     </row>
@@ -7843,7 +9551,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1E-4</v>
       </c>
       <c r="D13" s="3">
@@ -7853,15 +9561,15 @@
         <v>12.36</v>
       </c>
       <c r="J13">
-        <f>E13/H$1</f>
+        <f t="shared" si="0"/>
         <v>1.5449999999999999</v>
       </c>
       <c r="K13">
-        <f>E13/D13</f>
+        <f t="shared" si="1"/>
         <v>0.77492163009404391</v>
       </c>
       <c r="L13">
-        <f>K13/H$1</f>
+        <f t="shared" si="2"/>
         <v>9.6865203761755489E-2</v>
       </c>
     </row>
@@ -7871,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D14" s="3">
@@ -7881,15 +9589,15 @@
         <v>21.8</v>
       </c>
       <c r="J14">
-        <f>E14/H$1</f>
+        <f t="shared" si="0"/>
         <v>2.7250000000000001</v>
       </c>
       <c r="K14">
-        <f>E14/D14</f>
+        <f t="shared" si="1"/>
         <v>0.22425676370743752</v>
       </c>
       <c r="L14">
-        <f>K14/H$1</f>
+        <f t="shared" si="2"/>
         <v>2.803209546342969E-2</v>
       </c>
     </row>
@@ -7911,15 +9619,15 @@
         <v>1.4</v>
       </c>
       <c r="J15">
-        <f>E15/H$1</f>
+        <f t="shared" si="0"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="K15">
-        <f>E15/D15</f>
+        <f t="shared" si="1"/>
         <v>2.2838499184339316</v>
       </c>
       <c r="L15">
-        <f>K15/H$1</f>
+        <f t="shared" si="2"/>
         <v>0.28548123980424145</v>
       </c>
     </row>
@@ -7929,7 +9637,7 @@
         <v>100</v>
       </c>
       <c r="C16" s="7">
-        <f t="shared" ref="C16:C18" si="2">B16/A$15</f>
+        <f t="shared" ref="C16:C18" si="5">B16/A$15</f>
         <v>0.01</v>
       </c>
       <c r="D16">
@@ -7939,15 +9647,15 @@
         <v>1.39</v>
       </c>
       <c r="J16">
-        <f>E16/H$1</f>
+        <f t="shared" si="0"/>
         <v>0.17374999999999999</v>
       </c>
       <c r="K16">
-        <f>E16/D16</f>
+        <f t="shared" si="1"/>
         <v>2.2239999999999998</v>
       </c>
       <c r="L16">
-        <f>K16/H$1</f>
+        <f t="shared" si="2"/>
         <v>0.27799999999999997</v>
       </c>
     </row>
@@ -7957,7 +9665,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1E-3</v>
       </c>
       <c r="D17">
@@ -7967,15 +9675,15 @@
         <v>1.41</v>
       </c>
       <c r="J17">
-        <f>E17/H$1</f>
+        <f t="shared" si="0"/>
         <v>0.17624999999999999</v>
       </c>
       <c r="K17">
-        <f>E17/D17</f>
+        <f t="shared" si="1"/>
         <v>1.2155172413793103</v>
       </c>
       <c r="L17">
-        <f>K17/H$1</f>
+        <f t="shared" si="2"/>
         <v>0.15193965517241378</v>
       </c>
     </row>
@@ -7985,7 +9693,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D18" s="3">
@@ -7995,15 +9703,15 @@
         <v>1.39</v>
       </c>
       <c r="J18">
-        <f>E18/H$1</f>
+        <f t="shared" si="0"/>
         <v>0.17374999999999999</v>
       </c>
       <c r="K18">
-        <f>E18/D18</f>
+        <f t="shared" si="1"/>
         <v>0.15885714285714284</v>
       </c>
       <c r="L18">
-        <f>K18/H$1</f>
+        <f t="shared" si="2"/>
         <v>1.9857142857142854E-2</v>
       </c>
     </row>
@@ -8025,15 +9733,15 @@
         <v>0.36</v>
       </c>
       <c r="J19">
-        <f>E19/H$1</f>
+        <f t="shared" si="0"/>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K19">
-        <f>E19/D19</f>
+        <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="L19">
-        <f>K19/H$1</f>
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -8043,7 +9751,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <f t="shared" ref="C20:C21" si="3">B20/A$19</f>
+        <f t="shared" ref="C20:C21" si="6">B20/A$19</f>
         <v>0.01</v>
       </c>
       <c r="D20">
@@ -8053,15 +9761,15 @@
         <v>0.4</v>
       </c>
       <c r="J20">
-        <f>E20/H$1</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="K20">
-        <f>E20/D20</f>
+        <f t="shared" si="1"/>
         <v>1.0810810810810811</v>
       </c>
       <c r="L20">
-        <f>K20/H$1</f>
+        <f t="shared" si="2"/>
         <v>0.13513513513513514</v>
       </c>
     </row>
@@ -8071,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D21" s="3">
@@ -8081,15 +9789,15 @@
         <v>0.37</v>
       </c>
       <c r="J21">
-        <f>E21/H$1</f>
+        <f t="shared" si="0"/>
         <v>4.6249999999999999E-2</v>
       </c>
       <c r="K21">
-        <f>E21/D21</f>
+        <f t="shared" si="1"/>
         <v>0.30578512396694213</v>
       </c>
       <c r="L21">
-        <f>K21/H$1</f>
+        <f t="shared" si="2"/>
         <v>3.8223140495867766E-2</v>
       </c>
     </row>
@@ -8111,15 +9819,15 @@
         <v>0.04</v>
       </c>
       <c r="J22">
-        <f>E22/H$1</f>
+        <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K22">
-        <f>E22/D22</f>
+        <f t="shared" si="1"/>
         <v>0.21857923497267762</v>
       </c>
       <c r="L22">
-        <f>K22/H$1</f>
+        <f t="shared" si="2"/>
         <v>2.7322404371584702E-2</v>
       </c>
     </row>
@@ -8139,15 +9847,15 @@
         <v>0.03</v>
       </c>
       <c r="J23">
-        <f>E23/H$1</f>
+        <f t="shared" si="0"/>
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="K23">
-        <f>E23/D23</f>
+        <f t="shared" si="1"/>
         <v>7.9575596816976124E-2</v>
       </c>
       <c r="L23">
-        <f>K23/H$1</f>
+        <f t="shared" si="2"/>
         <v>9.9469496021220155E-3</v>
       </c>
     </row>
@@ -8159,7 +9867,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="7">
-        <f t="shared" ref="C24" si="4">B24/A24</f>
+        <f t="shared" ref="C24" si="7">B24/A24</f>
         <v>0</v>
       </c>
       <c r="D24" s="3">
@@ -8169,15 +9877,15 @@
         <v>2E-3</v>
       </c>
       <c r="J24">
-        <f>E24/H$1</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="K24">
-        <f>E24/D24</f>
+        <f t="shared" si="1"/>
         <v>1.388888888888889E-2</v>
       </c>
       <c r="L24">
-        <f>K24/H$1</f>
+        <f t="shared" si="2"/>
         <v>1.7361111111111112E-3</v>
       </c>
     </row>
@@ -8205,8 +9913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114D4CF2-C79F-4490-978F-5FCDB359303E}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8292,11 +10000,11 @@
         <f t="shared" ref="J4:J24" si="0">E4/H$1</f>
         <v>11.372083333333334</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="13">
         <f t="shared" ref="K4:K24" si="1">E4/D4</f>
         <v>3.9338426059383109</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="13">
         <f t="shared" ref="L4:L24" si="2">K4/H$1</f>
         <v>0.32782021716152593</v>
       </c>
@@ -8320,11 +10028,11 @@
         <f t="shared" si="0"/>
         <v>11.332500000000001</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="13">
         <f t="shared" si="1"/>
         <v>3.9577997671711294</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="13">
         <f t="shared" si="2"/>
         <v>0.3298166472642608</v>
       </c>
@@ -8348,11 +10056,11 @@
         <f t="shared" si="0"/>
         <v>11.478333333333333</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="13">
         <f t="shared" si="1"/>
         <v>3.9580459770114946</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="13">
         <f t="shared" si="2"/>
         <v>0.32983716475095787</v>
       </c>
@@ -8376,11 +10084,11 @@
         <f t="shared" si="0"/>
         <v>11.483333333333334</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="13">
         <f t="shared" si="1"/>
         <v>3.7909215955983497</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="13">
         <f t="shared" si="2"/>
         <v>0.31591013296652914</v>
       </c>
@@ -8404,11 +10112,11 @@
         <f t="shared" si="0"/>
         <v>11.689166666666667</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="13">
         <f t="shared" si="1"/>
         <v>0.93475942956150881</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="13">
         <f t="shared" si="2"/>
         <v>7.789661913012573E-2</v>
       </c>
@@ -8432,11 +10140,11 @@
         <f t="shared" si="0"/>
         <v>11.361666666666666</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="13">
         <f t="shared" si="1"/>
         <v>0.12739436751322158</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="13">
         <f t="shared" si="2"/>
         <v>1.0616197292768465E-2</v>
       </c>
@@ -8462,11 +10170,11 @@
         <f t="shared" si="0"/>
         <v>1.0341666666666667</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="13">
         <f t="shared" si="1"/>
         <v>3.4957746478873242</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="13">
         <f t="shared" si="2"/>
         <v>0.29131455399061035</v>
       </c>
@@ -8490,11 +10198,11 @@
         <f t="shared" si="0"/>
         <v>1.0466666666666666</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="13">
         <f t="shared" si="1"/>
         <v>3.7945619335347431</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="13">
         <f t="shared" si="2"/>
         <v>0.31621349446122859</v>
       </c>
@@ -8518,11 +10226,11 @@
         <f t="shared" si="0"/>
         <v>1.0366666666666666</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="13">
         <f t="shared" si="1"/>
         <v>3.7583081570996977</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="13">
         <f t="shared" si="2"/>
         <v>0.31319234642497479</v>
       </c>
@@ -8546,11 +10254,11 @@
         <f t="shared" si="0"/>
         <v>1.0166666666666666</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="13">
         <f t="shared" si="1"/>
         <v>0.65240641711229941</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="13">
         <f t="shared" si="2"/>
         <v>5.4367201426024948E-2</v>
       </c>
@@ -8574,11 +10282,11 @@
         <f t="shared" si="0"/>
         <v>1.0250000000000001</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="13">
         <f t="shared" si="1"/>
         <v>0.11968473289870586</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="13">
         <f t="shared" si="2"/>
         <v>9.9737277415588212E-3</v>
       </c>
@@ -8604,11 +10312,11 @@
         <f t="shared" si="0"/>
         <v>0.11441666666666667</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="13">
         <f t="shared" si="1"/>
         <v>2.4694244604316546</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="13">
         <f t="shared" si="2"/>
         <v>0.20578537170263789</v>
       </c>
@@ -8632,11 +10340,11 @@
         <f t="shared" si="0"/>
         <v>0.12275000000000001</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="13">
         <f t="shared" si="1"/>
         <v>2.4550000000000001</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="13">
         <f t="shared" si="2"/>
         <v>0.20458333333333334</v>
       </c>
@@ -8660,11 +10368,11 @@
         <f t="shared" si="0"/>
         <v>0.11708333333333333</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="13">
         <f t="shared" si="1"/>
         <v>0.99716110716820439</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="13">
         <f t="shared" si="2"/>
         <v>8.3096758930683703E-2</v>
       </c>
@@ -8688,11 +10396,11 @@
         <f t="shared" si="0"/>
         <v>0.11083333333333334</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="13">
         <f t="shared" si="1"/>
         <v>0.13516260162601626</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="13">
         <f t="shared" si="2"/>
         <v>1.1263550135501356E-2</v>
       </c>
@@ -8718,11 +10426,11 @@
         <f t="shared" si="0"/>
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="13">
         <f t="shared" si="1"/>
         <v>1.2307692307692308</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="13">
         <f t="shared" si="2"/>
         <v>0.10256410256410257</v>
       </c>
@@ -8746,11 +10454,11 @@
         <f t="shared" si="0"/>
         <v>3.4833333333333334E-2</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="13">
         <f t="shared" si="1"/>
         <v>1.0048076923076923</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="13">
         <f t="shared" si="2"/>
         <v>8.3733974358974353E-2</v>
       </c>
@@ -8774,11 +10482,11 @@
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="13">
         <f t="shared" si="1"/>
         <v>0.26277372262773718</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="13">
         <f t="shared" si="2"/>
         <v>2.18978102189781E-2</v>
       </c>
@@ -8804,11 +10512,11 @@
         <f t="shared" si="0"/>
         <v>2.4166666666666668E-3</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="13">
         <f t="shared" si="1"/>
         <v>0.12083333333333335</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="13">
         <f t="shared" si="2"/>
         <v>1.0069444444444445E-2</v>
       </c>
@@ -8832,11 +10540,11 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="13">
         <f t="shared" si="1"/>
         <v>7.1770334928229665E-2</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="13">
         <f t="shared" si="2"/>
         <v>5.9808612440191387E-3</v>
       </c>
@@ -8862,11 +10570,11 @@
         <f t="shared" si="0"/>
         <v>2.1666666666666666E-4</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="13">
         <f t="shared" si="1"/>
         <v>1.2682926829268294E-2</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="13">
         <f t="shared" si="2"/>
         <v>1.0569105691056911E-3</v>
       </c>
